--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_12_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_12_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1062501.865850613</v>
+        <v>1059479.279873889</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -662,16 +662,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>10.58695345037629</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="G2" t="n">
-        <v>18.92112911249623</v>
+        <v>15.21022140383137</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>33.93991247395533</v>
       </c>
       <c r="S2" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -738,16 +738,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>29.89427490705984</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>29.89427490705985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +817,7 @@
         <v>12.44627538834367</v>
       </c>
       <c r="C4" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>33.93991247395533</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>11.85612676368803</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>27.0180752910075</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,11 +944,11 @@
         <v>38.48106384277808</v>
       </c>
       <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -984,64 +984,64 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>38.48106384277808</v>
+      </c>
+      <c r="V6" t="n">
+        <v>38.48106384277808</v>
+      </c>
+      <c r="W6" t="n">
         <v>33.89412103271894</v>
       </c>
-      <c r="G6" t="n">
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
         <v>38.48106384277808</v>
-      </c>
-      <c r="H6" t="n">
-        <v>38.48106384277808</v>
-      </c>
-      <c r="I6" t="n">
-        <v>38.48106384277808</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>18.96187038700693</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>38.48106384277808</v>
       </c>
       <c r="R7" t="n">
-        <v>18.96187038700693</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>31.7586221147389</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>233.1896216146422</v>
+        <v>233.1896216146421</v>
       </c>
       <c r="G8" t="n">
-        <v>233.1896216146422</v>
+        <v>137.9035111596421</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>233.1896216146421</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>127.0447325697388</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>13.92897356806986</v>
+        <v>13.92897356806995</v>
       </c>
       <c r="S8" t="n">
         <v>159.7058230353679</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>233.1896216146422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>101.0526519233379</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>49.53063845618576</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,28 +1257,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>28.26700400501684</v>
+        <v>28.26700400501689</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>150.1758480129084</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>82.26316341397032</v>
       </c>
       <c r="U9" t="n">
-        <v>54.34879521001787</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>233.1896216146422</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>49.05622089279105</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>24.72806208046097</v>
+        <v>24.72806208046102</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.876042450415355</v>
+        <v>4.876042450415412</v>
       </c>
       <c r="R10" t="n">
-        <v>3.437300230968169</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>233.1896216146422</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>233.1896216146422</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>339.9584423181253</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>230.6952660164346</v>
       </c>
       <c r="I11" t="n">
         <v>24.14662204184557</v>
@@ -1433,10 +1433,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.25352389927374</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>59.29995785168981</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2007761200435</v>
+        <v>139.6188514715482</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,13 +1774,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>24.94196613735031</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>106.3612762946746</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>160.2261899043212</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>221.4418477627494</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>8.616048582069379</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>115.7063133373719</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>69.82863813027194</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>168.4805514670955</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2725,13 +2725,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>132.6315337216688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>174.7683347992594</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>102.1557845699817</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673025</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142968</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>172.3645574474252</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3430,10 +3430,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>44.75138076689277</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>80.08971311158726</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>9.14614278817956</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>104.8913819999783</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>83.53432244437066</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>55.52079624060406</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4138,16 +4138,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>123.7971820797027</v>
       </c>
       <c r="G46" t="n">
-        <v>20.72279572932704</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32.91143027777485</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="C2" t="n">
-        <v>32.91143027777485</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="D2" t="n">
-        <v>32.91143027777485</v>
+        <v>90.7830176490217</v>
       </c>
       <c r="E2" t="n">
-        <v>32.91143027777485</v>
+        <v>56.50027777633954</v>
       </c>
       <c r="F2" t="n">
-        <v>25.96592952857138</v>
+        <v>22.21753790365739</v>
       </c>
       <c r="G2" t="n">
         <v>6.853677899787311</v>
@@ -4331,19 +4331,19 @@
         <v>2.715192997916426</v>
       </c>
       <c r="K2" t="n">
-        <v>2.715192997916426</v>
+        <v>36.31570634713221</v>
       </c>
       <c r="L2" t="n">
-        <v>36.31570634713221</v>
+        <v>69.91621969634798</v>
       </c>
       <c r="M2" t="n">
-        <v>69.91621969634798</v>
+        <v>103.5167330455638</v>
       </c>
       <c r="N2" t="n">
-        <v>102.1591365466055</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="O2" t="n">
-        <v>102.1591365466055</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="P2" t="n">
         <v>135.7596498958213</v>
@@ -4355,25 +4355,25 @@
         <v>101.4769100231392</v>
       </c>
       <c r="S2" t="n">
-        <v>67.19417015045701</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="T2" t="n">
-        <v>67.19417015045701</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="U2" t="n">
-        <v>32.91143027777485</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="V2" t="n">
-        <v>32.91143027777485</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="W2" t="n">
-        <v>32.91143027777485</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="X2" t="n">
-        <v>32.91143027777485</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="Y2" t="n">
-        <v>32.91143027777485</v>
+        <v>101.4769100231392</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.715192997916426</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="C3" t="n">
-        <v>2.715192997916426</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="D3" t="n">
-        <v>2.715192997916426</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="E3" t="n">
-        <v>2.715192997916426</v>
+        <v>36.99793287059858</v>
       </c>
       <c r="F3" t="n">
         <v>2.715192997916426</v>
@@ -4407,25 +4407,25 @@
         <v>2.715192997916426</v>
       </c>
       <c r="J3" t="n">
-        <v>2.715192997916426</v>
+        <v>6.606010638615182</v>
       </c>
       <c r="K3" t="n">
-        <v>2.715192997916426</v>
+        <v>40.20652398783096</v>
       </c>
       <c r="L3" t="n">
-        <v>36.31570634713221</v>
+        <v>73.80703733704675</v>
       </c>
       <c r="M3" t="n">
-        <v>69.91621969634798</v>
+        <v>102.1591365466055</v>
       </c>
       <c r="N3" t="n">
         <v>102.1591365466055</v>
       </c>
       <c r="O3" t="n">
-        <v>135.7596498958213</v>
+        <v>102.1591365466055</v>
       </c>
       <c r="P3" t="n">
-        <v>135.7596498958213</v>
+        <v>102.1591365466055</v>
       </c>
       <c r="Q3" t="n">
         <v>135.7596498958213</v>
@@ -4440,19 +4440,19 @@
         <v>135.7596498958213</v>
       </c>
       <c r="U3" t="n">
-        <v>101.4769100231392</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="V3" t="n">
-        <v>67.19417015045701</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="W3" t="n">
-        <v>67.19417015045701</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="X3" t="n">
-        <v>32.91143027777485</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.715192997916426</v>
+        <v>135.7596498958213</v>
       </c>
     </row>
     <row r="4">
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>123.18765455406</v>
+        <v>88.90491468137789</v>
       </c>
       <c r="C4" t="n">
         <v>88.90491468137789</v>
@@ -4507,31 +4507,31 @@
         <v>135.7596498958213</v>
       </c>
       <c r="Q4" t="n">
-        <v>135.7596498958213</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="R4" t="n">
-        <v>135.7596498958213</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="S4" t="n">
-        <v>135.7596498958213</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="T4" t="n">
-        <v>135.7596498958213</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="U4" t="n">
-        <v>135.7596498958213</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="V4" t="n">
-        <v>135.7596498958213</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="W4" t="n">
-        <v>135.7596498958213</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="X4" t="n">
-        <v>135.7596498958213</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="Y4" t="n">
-        <v>135.7596498958213</v>
+        <v>101.4769100231392</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76.18473245640914</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="C5" t="n">
-        <v>76.18473245640914</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="D5" t="n">
-        <v>76.18473245640914</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="E5" t="n">
-        <v>76.18473245640914</v>
+        <v>25.33908537917064</v>
       </c>
       <c r="F5" t="n">
-        <v>69.23923170720566</v>
+        <v>18.39358462996717</v>
       </c>
       <c r="G5" t="n">
-        <v>41.94824656477385</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="H5" t="n">
-        <v>41.94824656477385</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="I5" t="n">
         <v>3.078485107422247</v>
@@ -4568,13 +4568,13 @@
         <v>3.078485107422247</v>
       </c>
       <c r="K5" t="n">
-        <v>3.078485107422247</v>
+        <v>41.17473831177255</v>
       </c>
       <c r="L5" t="n">
-        <v>3.078485107422247</v>
+        <v>72.57095064492114</v>
       </c>
       <c r="M5" t="n">
-        <v>34.47469744057084</v>
+        <v>72.57095064492114</v>
       </c>
       <c r="N5" t="n">
         <v>72.57095064492114</v>
@@ -4592,7 +4592,7 @@
         <v>115.0544939137607</v>
       </c>
       <c r="S5" t="n">
-        <v>76.18473245640914</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="T5" t="n">
         <v>76.18473245640914</v>
@@ -4604,13 +4604,13 @@
         <v>76.18473245640914</v>
       </c>
       <c r="W5" t="n">
-        <v>76.18473245640914</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="X5" t="n">
-        <v>76.18473245640914</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="Y5" t="n">
-        <v>76.18473245640914</v>
+        <v>37.31497099905754</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>153.9242553711123</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="C6" t="n">
-        <v>153.9242553711123</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="D6" t="n">
-        <v>153.9242553711123</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="E6" t="n">
-        <v>153.9242553711123</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="F6" t="n">
-        <v>119.687769479477</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="G6" t="n">
-        <v>80.81800802212544</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="H6" t="n">
-        <v>41.94824656477385</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="I6" t="n">
         <v>3.078485107422247</v>
@@ -4650,19 +4650,19 @@
         <v>41.17473831177255</v>
       </c>
       <c r="L6" t="n">
-        <v>41.17473831177255</v>
+        <v>79.27099151612285</v>
       </c>
       <c r="M6" t="n">
-        <v>41.17473831177255</v>
+        <v>115.828002166762</v>
       </c>
       <c r="N6" t="n">
-        <v>41.17473831177255</v>
+        <v>115.828002166762</v>
       </c>
       <c r="O6" t="n">
-        <v>77.73174896241173</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="P6" t="n">
-        <v>115.828002166762</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="Q6" t="n">
         <v>153.9242553711123</v>
@@ -4677,19 +4677,19 @@
         <v>153.9242553711123</v>
       </c>
       <c r="U6" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="V6" t="n">
-        <v>153.9242553711123</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="W6" t="n">
-        <v>153.9242553711123</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="X6" t="n">
-        <v>153.9242553711123</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="Y6" t="n">
-        <v>153.9242553711123</v>
+        <v>3.078485107422247</v>
       </c>
     </row>
     <row r="7">
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>95.90108948244061</v>
+        <v>57.03132802508901</v>
       </c>
       <c r="C7" t="n">
-        <v>95.90108948244061</v>
+        <v>57.03132802508901</v>
       </c>
       <c r="D7" t="n">
-        <v>95.90108948244061</v>
+        <v>57.03132802508901</v>
       </c>
       <c r="E7" t="n">
         <v>57.03132802508901</v>
@@ -4747,28 +4747,28 @@
         <v>115.0544939137607</v>
       </c>
       <c r="R7" t="n">
-        <v>95.90108948244061</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="S7" t="n">
-        <v>95.90108948244061</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="T7" t="n">
-        <v>95.90108948244061</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="U7" t="n">
-        <v>95.90108948244061</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="V7" t="n">
-        <v>95.90108948244061</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="W7" t="n">
-        <v>95.90108948244061</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="X7" t="n">
-        <v>95.90108948244061</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="Y7" t="n">
-        <v>95.90108948244061</v>
+        <v>76.18473245640914</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>521.8247306827303</v>
+        <v>757.3698030207523</v>
       </c>
       <c r="C8" t="n">
-        <v>521.8247306827303</v>
+        <v>757.3698030207523</v>
       </c>
       <c r="D8" t="n">
-        <v>521.8247306827303</v>
+        <v>757.3698030207523</v>
       </c>
       <c r="E8" t="n">
-        <v>489.7453144052163</v>
+        <v>757.3698030207523</v>
       </c>
       <c r="F8" t="n">
-        <v>254.2002420671938</v>
+        <v>521.82473068273</v>
       </c>
       <c r="G8" t="n">
-        <v>18.65516972917138</v>
+        <v>382.5282547638996</v>
       </c>
       <c r="H8" t="n">
-        <v>18.65516972917138</v>
+        <v>146.9831824258772</v>
       </c>
       <c r="I8" t="n">
-        <v>18.65516972917138</v>
+        <v>18.65516972917137</v>
       </c>
       <c r="J8" t="n">
-        <v>21.25758197087038</v>
+        <v>188.6632309912233</v>
       </c>
       <c r="K8" t="n">
-        <v>75.89644156137386</v>
+        <v>301.1293889515007</v>
       </c>
       <c r="L8" t="n">
-        <v>180.582540239795</v>
+        <v>405.8154876299216</v>
       </c>
       <c r="M8" t="n">
-        <v>328.7354333153926</v>
+        <v>553.9683807055189</v>
       </c>
       <c r="N8" t="n">
-        <v>483.8994034688674</v>
+        <v>709.1323508589935</v>
       </c>
       <c r="O8" t="n">
-        <v>714.7571288673631</v>
+        <v>842.3140266952936</v>
       </c>
       <c r="P8" t="n">
-        <v>793.9236070677208</v>
+        <v>921.4805048956511</v>
       </c>
       <c r="Q8" t="n">
-        <v>932.7584864585688</v>
+        <v>932.7584864585683</v>
       </c>
       <c r="R8" t="n">
-        <v>918.6888161877911</v>
+        <v>918.6888161877906</v>
       </c>
       <c r="S8" t="n">
-        <v>757.3698030207528</v>
+        <v>757.3698030207523</v>
       </c>
       <c r="T8" t="n">
-        <v>757.3698030207528</v>
+        <v>757.3698030207523</v>
       </c>
       <c r="U8" t="n">
-        <v>757.3698030207528</v>
+        <v>757.3698030207523</v>
       </c>
       <c r="V8" t="n">
-        <v>757.3698030207528</v>
+        <v>757.3698030207523</v>
       </c>
       <c r="W8" t="n">
-        <v>757.3698030207528</v>
+        <v>757.3698030207523</v>
       </c>
       <c r="X8" t="n">
-        <v>757.3698030207528</v>
+        <v>757.3698030207523</v>
       </c>
       <c r="Y8" t="n">
-        <v>521.8247306827303</v>
+        <v>757.3698030207523</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>170.7595034458619</v>
+        <v>18.65516972917137</v>
       </c>
       <c r="C9" t="n">
-        <v>170.7595034458619</v>
+        <v>18.65516972917137</v>
       </c>
       <c r="D9" t="n">
-        <v>170.7595034458619</v>
+        <v>18.65516972917137</v>
       </c>
       <c r="E9" t="n">
-        <v>170.7595034458619</v>
+        <v>18.65516972917137</v>
       </c>
       <c r="F9" t="n">
-        <v>170.7595034458619</v>
+        <v>18.65516972917137</v>
       </c>
       <c r="G9" t="n">
-        <v>170.7595034458619</v>
+        <v>18.65516972917137</v>
       </c>
       <c r="H9" t="n">
-        <v>68.68611766471255</v>
+        <v>18.65516972917137</v>
       </c>
       <c r="I9" t="n">
-        <v>18.65516972917138</v>
+        <v>18.65516972917137</v>
       </c>
       <c r="J9" t="n">
-        <v>18.65516972917138</v>
+        <v>18.65516972917137</v>
       </c>
       <c r="K9" t="n">
-        <v>69.63890544654406</v>
+        <v>158.4844502633772</v>
       </c>
       <c r="L9" t="n">
-        <v>181.3656608033819</v>
+        <v>389.3421756618728</v>
       </c>
       <c r="M9" t="n">
-        <v>331.1023826664784</v>
+        <v>539.0788975249692</v>
       </c>
       <c r="N9" t="n">
-        <v>499.2108349175169</v>
+        <v>707.1873497760074</v>
       </c>
       <c r="O9" t="n">
-        <v>630.7774308765519</v>
+        <v>838.7539457350422</v>
       </c>
       <c r="P9" t="n">
-        <v>717.0381570063903</v>
+        <v>925.0146718648805</v>
       </c>
       <c r="Q9" t="n">
-        <v>932.7584864585688</v>
+        <v>932.7584864585683</v>
       </c>
       <c r="R9" t="n">
-        <v>904.205957160572</v>
+        <v>904.2059571605714</v>
       </c>
       <c r="S9" t="n">
-        <v>904.205957160572</v>
+        <v>752.5131813899568</v>
       </c>
       <c r="T9" t="n">
-        <v>904.205957160572</v>
+        <v>669.4190769314009</v>
       </c>
       <c r="U9" t="n">
-        <v>849.30818422116</v>
+        <v>669.4190769314009</v>
       </c>
       <c r="V9" t="n">
-        <v>614.1560759894172</v>
+        <v>434.2669686996582</v>
       </c>
       <c r="W9" t="n">
-        <v>378.6110036513948</v>
+        <v>434.2669686996582</v>
       </c>
       <c r="X9" t="n">
-        <v>170.7595034458619</v>
+        <v>226.4154684941253</v>
       </c>
       <c r="Y9" t="n">
-        <v>170.7595034458619</v>
+        <v>18.65516972917137</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43.63301021448549</v>
+        <v>707.0406119105781</v>
       </c>
       <c r="C10" t="n">
-        <v>43.63301021448549</v>
+        <v>538.1044289826713</v>
       </c>
       <c r="D10" t="n">
-        <v>43.63301021448549</v>
+        <v>387.9877895703355</v>
       </c>
       <c r="E10" t="n">
-        <v>43.63301021448549</v>
+        <v>240.0746959879424</v>
       </c>
       <c r="F10" t="n">
-        <v>43.63301021448549</v>
+        <v>93.18474849003204</v>
       </c>
       <c r="G10" t="n">
-        <v>43.63301021448549</v>
+        <v>43.63301021448552</v>
       </c>
       <c r="H10" t="n">
-        <v>43.63301021448549</v>
+        <v>43.63301021448552</v>
       </c>
       <c r="I10" t="n">
-        <v>43.63301021448549</v>
+        <v>43.63301021448552</v>
       </c>
       <c r="J10" t="n">
-        <v>18.65516972917138</v>
+        <v>18.65516972917137</v>
       </c>
       <c r="K10" t="n">
-        <v>108.2625623056362</v>
+        <v>108.2625623056363</v>
       </c>
       <c r="L10" t="n">
-        <v>278.4556086609853</v>
+        <v>278.4556086609852</v>
       </c>
       <c r="M10" t="n">
-        <v>468.2894363112781</v>
+        <v>468.289436311278</v>
       </c>
       <c r="N10" t="n">
-        <v>659.0440562613676</v>
+        <v>659.0440562613675</v>
       </c>
       <c r="O10" t="n">
-        <v>819.2205268006969</v>
+        <v>819.2205268006965</v>
       </c>
       <c r="P10" t="n">
-        <v>932.7584864585688</v>
+        <v>932.7584864585683</v>
       </c>
       <c r="Q10" t="n">
-        <v>927.8331910541089</v>
+        <v>927.8331910541083</v>
       </c>
       <c r="R10" t="n">
-        <v>924.3611706187875</v>
+        <v>927.8331910541083</v>
       </c>
       <c r="S10" t="n">
-        <v>924.3611706187875</v>
+        <v>927.8331910541083</v>
       </c>
       <c r="T10" t="n">
-        <v>924.3611706187875</v>
+        <v>927.8331910541083</v>
       </c>
       <c r="U10" t="n">
-        <v>924.3611706187875</v>
+        <v>927.8331910541083</v>
       </c>
       <c r="V10" t="n">
-        <v>688.816098280765</v>
+        <v>927.8331910541083</v>
       </c>
       <c r="W10" t="n">
-        <v>453.2710259427425</v>
+        <v>927.8331910541083</v>
       </c>
       <c r="X10" t="n">
-        <v>225.2814750447252</v>
+        <v>927.8331910541083</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.2814750447252</v>
+        <v>707.0406119105781</v>
       </c>
     </row>
     <row r="11">
@@ -5015,64 +5015,64 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2262.229501173506</v>
+        <v>1858.956087394652</v>
       </c>
       <c r="C11" t="n">
-        <v>1893.266984233094</v>
+        <v>1489.993570454241</v>
       </c>
       <c r="D11" t="n">
-        <v>1535.001285626344</v>
+        <v>1131.72787184749</v>
       </c>
       <c r="E11" t="n">
-        <v>1149.2130330281</v>
+        <v>745.9396192492459</v>
       </c>
       <c r="F11" t="n">
-        <v>738.2271282384921</v>
+        <v>334.9537144596383</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8347622605878</v>
+        <v>334.9537144596383</v>
       </c>
       <c r="H11" t="n">
         <v>101.9281932309163</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592074</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706899</v>
+        <v>304.4060796706888</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656976</v>
+        <v>695.1615405656955</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625331</v>
+        <v>1216.830004625329</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087833</v>
+        <v>1828.95612308783</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484044</v>
+        <v>2455.600890484042</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535298</v>
+        <v>3033.988513535296</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479996</v>
+        <v>3493.127967479994</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464061</v>
+        <v>3789.74982946406</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796037</v>
+        <v>3876.883295796036</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345378</v>
+        <v>3776.999350345377</v>
       </c>
       <c r="T11" t="n">
         <v>3573.020743926742</v>
       </c>
       <c r="U11" t="n">
-        <v>3319.526802048271</v>
+        <v>3319.52680204827</v>
       </c>
       <c r="V11" t="n">
         <v>2988.4639147047</v>
@@ -5081,10 +5081,10 @@
         <v>2635.695259434586</v>
       </c>
       <c r="X11" t="n">
-        <v>2262.229501173506</v>
+        <v>2635.695259434586</v>
       </c>
       <c r="Y11" t="n">
-        <v>2262.229501173506</v>
+        <v>2245.555927458774</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>618.1648558508402</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9274008453848</v>
+        <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
         <v>312.3928428722697</v>
@@ -5112,25 +5112,25 @@
         <v>176.274091040601</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390852</v>
+        <v>88.13208718390851</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592074</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870413</v>
+        <v>193.8410919870412</v>
       </c>
       <c r="K12" t="n">
         <v>470.7769964046655</v>
       </c>
       <c r="L12" t="n">
-        <v>889.4740370626171</v>
+        <v>503.2284887929944</v>
       </c>
       <c r="M12" t="n">
-        <v>1397.430603019145</v>
+        <v>1011.185054749523</v>
       </c>
       <c r="N12" t="n">
-        <v>1933.239912720355</v>
+        <v>1546.994364450733</v>
       </c>
       <c r="O12" t="n">
         <v>2014.935408783255</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>392.9487426871256</v>
+        <v>782.5587049922989</v>
       </c>
       <c r="C13" t="n">
-        <v>392.9487426871256</v>
+        <v>613.622522064392</v>
       </c>
       <c r="D13" t="n">
-        <v>392.9487426871256</v>
+        <v>463.5058826520562</v>
       </c>
       <c r="E13" t="n">
-        <v>245.0356491047325</v>
+        <v>315.592789069663</v>
       </c>
       <c r="F13" t="n">
-        <v>245.0356491047325</v>
+        <v>168.7028415717528</v>
       </c>
       <c r="G13" t="n">
-        <v>77.53766591592074</v>
+        <v>168.7028415717528</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592074</v>
+        <v>168.7028415717528</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592074</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="J13" t="n">
         <v>136.8552218758649</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648145</v>
+        <v>364.1690246648143</v>
       </c>
       <c r="L13" t="n">
         <v>710.5788654344806</v>
@@ -5221,28 +5221,28 @@
         <v>2137.362968742807</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.464021417868</v>
+        <v>2137.362968742807</v>
       </c>
       <c r="S13" t="n">
-        <v>2077.464021417868</v>
+        <v>2137.362968742807</v>
       </c>
       <c r="T13" t="n">
-        <v>1856.572688852309</v>
+        <v>1916.471636177248</v>
       </c>
       <c r="U13" t="n">
-        <v>1567.48099580176</v>
+        <v>1775.442493276694</v>
       </c>
       <c r="V13" t="n">
-        <v>1312.796507595873</v>
+        <v>1520.758005070807</v>
       </c>
       <c r="W13" t="n">
-        <v>1023.379337558913</v>
+        <v>1231.340835033846</v>
       </c>
       <c r="X13" t="n">
-        <v>795.3897866608954</v>
+        <v>1003.351284135829</v>
       </c>
       <c r="Y13" t="n">
-        <v>574.5972075173653</v>
+        <v>782.5587049922989</v>
       </c>
     </row>
     <row r="14">
@@ -5273,31 +5273,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>982.1492342949676</v>
+        <v>810.0653816078128</v>
       </c>
       <c r="C16" t="n">
-        <v>813.2130513670608</v>
+        <v>641.1291986799059</v>
       </c>
       <c r="D16" t="n">
-        <v>663.0964119547245</v>
+        <v>491.0125592675702</v>
       </c>
       <c r="E16" t="n">
-        <v>515.1833183723314</v>
+        <v>343.0994656851772</v>
       </c>
       <c r="F16" t="n">
-        <v>368.293370874421</v>
+        <v>343.0994656851772</v>
       </c>
       <c r="G16" t="n">
-        <v>201.097271589301</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2272.481747211779</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>2052.88028223472</v>
       </c>
       <c r="U16" t="n">
-        <v>1975.033022579363</v>
+        <v>1763.805055578918</v>
       </c>
       <c r="V16" t="n">
-        <v>1720.348534373476</v>
+        <v>1509.120567373031</v>
       </c>
       <c r="W16" t="n">
-        <v>1430.931364336515</v>
+        <v>1219.70339733607</v>
       </c>
       <c r="X16" t="n">
-        <v>1202.941813438498</v>
+        <v>991.7138464380525</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.1492342949676</v>
+        <v>991.7138464380525</v>
       </c>
     </row>
     <row r="17">
@@ -5510,7 +5510,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5519,13 +5519,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5592,19 +5592,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>868.6673633290468</v>
+        <v>945.4026036630041</v>
       </c>
       <c r="C19" t="n">
-        <v>699.7311804011399</v>
+        <v>776.4664207350972</v>
       </c>
       <c r="D19" t="n">
-        <v>549.6145409888043</v>
+        <v>626.3497813227616</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>626.3497813227616</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>479.4598338248513</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1753.782446406721</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1499.097958200834</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1499.097958200834</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>1271.108407302816</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>1050.315828159286</v>
+        <v>945.4026036630041</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,7 +5786,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5835,19 +5835,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>733.45506571713</v>
+        <v>874.868625753638</v>
       </c>
       <c r="C22" t="n">
-        <v>564.5188827892231</v>
+        <v>705.9324428257311</v>
       </c>
       <c r="D22" t="n">
-        <v>564.5188827892231</v>
+        <v>555.8158034133953</v>
       </c>
       <c r="E22" t="n">
-        <v>416.60578920683</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>269.7158417089196</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>102.5197424237995</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5911,13 +5911,13 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570817</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2330.088019603117</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>2110.486554626058</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1821.411327970255</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1566.726839764368</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473697</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="23">
@@ -5966,43 +5966,43 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168608</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6011,22 +6011,22 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591809</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797189</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>945.4026036630036</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>776.4664207350968</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>626.349781322761</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>478.4366877403679</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>331.5467402424575</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>164.3506409573375</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>945.4026036630036</v>
       </c>
     </row>
     <row r="26">
@@ -6215,7 +6215,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6224,7 +6224,7 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075813</v>
@@ -6312,7 +6312,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
         <v>2001.151557821488</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>983.3556038098234</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>814.4194208819165</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>664.3027814695806</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>516.3896878871876</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
         <v>826.1405381797742</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>2160.315914855604</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V28" t="n">
-        <v>1905.631426649717</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135314</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188002</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121647</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="D31" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="E31" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,7 +6643,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
         <v>2197.062545487567</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327548</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290587</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925701</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490399</v>
       </c>
     </row>
     <row r="32">
@@ -6695,10 +6695,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6737,7 +6737,7 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591809</v>
@@ -6777,10 +6777,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
         <v>776.1751066403293</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263526</v>
+        <v>653.747479770887</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
         <v>484.8112968429802</v>
@@ -6856,7 +6856,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K34" t="n">
         <v>435.7419440038341</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,25 +6923,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6959,16 +6959,16 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>119.290296770379</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>763.7541388327645</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>594.8179559048576</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>594.8179559048576</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138413</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>945.4026036630041</v>
       </c>
     </row>
     <row r="38">
@@ -7160,49 +7160,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466574</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.899304487669</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597622</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179088</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="41">
@@ -7394,10 +7394,10 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,10 +7406,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.6725264685178</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C43" t="n">
-        <v>538.736343540611</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282754</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987576</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,22 +7643,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7688,7 +7688,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>870.3164745246296</v>
+        <v>696.7084350851669</v>
       </c>
       <c r="C46" t="n">
-        <v>701.3802915967227</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D46" t="n">
-        <v>551.263652184387</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="E46" t="n">
-        <v>403.3505586019938</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="F46" t="n">
-        <v>256.4606111040835</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7810,46 +7810,46 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W46" t="n">
-        <v>1500.747069396417</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X46" t="n">
-        <v>1272.757518498399</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.964939354869</v>
+        <v>878.3568999154066</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>208.3214547517356</v>
+        <v>242.2613672256909</v>
       </c>
       <c r="L2" t="n">
         <v>255.1065912093878</v>
@@ -7994,7 +7994,7 @@
         <v>214.5102874732696</v>
       </c>
       <c r="P2" t="n">
-        <v>251.8689757786171</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8055,28 +8055,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>129.8481964236088</v>
+        <v>163.7881088975641</v>
       </c>
       <c r="L3" t="n">
         <v>161.7463912169474</v>
       </c>
       <c r="M3" t="n">
-        <v>163.5316528316735</v>
+        <v>158.2302244077775</v>
       </c>
       <c r="N3" t="n">
-        <v>151.0360642081934</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O3" t="n">
-        <v>164.7587326673596</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P3" t="n">
         <v>124.5219861368073</v>
       </c>
       <c r="Q3" t="n">
-        <v>133.663080786811</v>
+        <v>167.6029932607663</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,16 +8216,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>202.1809638361346</v>
+        <v>240.6620276789126</v>
       </c>
       <c r="L5" t="n">
-        <v>213.5488567752802</v>
+        <v>245.2622025663394</v>
       </c>
       <c r="M5" t="n">
-        <v>237.3382646615596</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N5" t="n">
-        <v>242.7727963709657</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O5" t="n">
         <v>244.8579146936526</v>
@@ -8298,22 +8298,22 @@
         <v>164.1585617237782</v>
       </c>
       <c r="L6" t="n">
-        <v>122.1984598562864</v>
+        <v>160.6795236990645</v>
       </c>
       <c r="M6" t="n">
-        <v>123.047446830095</v>
+        <v>159.973720214579</v>
       </c>
       <c r="N6" t="n">
         <v>111.7499598249992</v>
       </c>
       <c r="O6" t="n">
-        <v>161.599892072038</v>
+        <v>163.1546825303321</v>
       </c>
       <c r="P6" t="n">
-        <v>158.0709840006057</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.8471891366353</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>58.41141249472128</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>98.66267632544995</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>128.845351341344</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>17.44229096378328</v>
+        <v>17.44229096378335</v>
       </c>
       <c r="K9" t="n">
-        <v>2.366108972262786</v>
+        <v>92.10908353472058</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>120.3343131733919</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>70.51116459514067</v>
+        <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>59.28223732294016</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
         <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927374</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>20.51334894736259</v>
+        <v>79.8133067990524</v>
       </c>
       <c r="S13" t="n">
         <v>186.2346889920369</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>146.5819246484953</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,13 +23662,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>115.3527467088736</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>74.66500970697001</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>5.297948387947685</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>64.74262662649471</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>131.6786642641545</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>65.31997266427271</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>70.46607471595195</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>57.22910392194169</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>32.89260457060008</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,22 +24646,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>111.7546635373316</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>46.45968844823062</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194169</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>138.4949402405076</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>114.1584408891658</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25318,10 +25318,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>101.6825818796764</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>138.4949402405075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>139.4693302300328</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659086</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>65.0811505738417</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,16 +26026,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>21.62386594322857</v>
       </c>
       <c r="G46" t="n">
-        <v>144.8013425629418</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>982677.5880688474</v>
+        <v>982677.5880688475</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>868111.6896025635</v>
+        <v>868111.6896025636</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>955716.5822159053</v>
+        <v>955716.5822159051</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>955716.5822159052</v>
+        <v>955716.5822159053</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>955716.5822159052</v>
+        <v>955716.5822159051</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>955716.5822159051</v>
+        <v>955716.5822159052</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>955716.5822159053</v>
+        <v>955716.5822159052</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>955716.5822159053</v>
+        <v>955716.5822159052</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>955716.5822159053</v>
+        <v>955716.5822159051</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>955716.5822159051</v>
+        <v>955716.5822159052</v>
       </c>
     </row>
     <row r="16">
@@ -26314,7 +26314,7 @@
         <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.0176719628</v>
       </c>
       <c r="D2" t="n">
         <v>472099.0176719631</v>
@@ -26326,34 +26326,34 @@
         <v>464109.2948217536</v>
       </c>
       <c r="G2" t="n">
+        <v>464109.2948217536</v>
+      </c>
+      <c r="H2" t="n">
+        <v>464109.2948217536</v>
+      </c>
+      <c r="I2" t="n">
+        <v>464109.2948217535</v>
+      </c>
+      <c r="J2" t="n">
+        <v>464109.2948217536</v>
+      </c>
+      <c r="K2" t="n">
         <v>464109.2948217537</v>
-      </c>
-      <c r="H2" t="n">
-        <v>464109.2948217535</v>
-      </c>
-      <c r="I2" t="n">
-        <v>464109.2948217537</v>
-      </c>
-      <c r="J2" t="n">
-        <v>464109.2948217537</v>
-      </c>
-      <c r="K2" t="n">
-        <v>464109.2948217535</v>
       </c>
       <c r="L2" t="n">
         <v>464109.2948217536</v>
       </c>
       <c r="M2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="N2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="O2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="P2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>12401.51063995663</v>
       </c>
       <c r="D3" t="n">
-        <v>491512.595430626</v>
+        <v>491512.5954306256</v>
       </c>
       <c r="E3" t="n">
-        <v>753160.7363854427</v>
+        <v>753160.7363854429</v>
       </c>
       <c r="F3" t="n">
         <v>189308.2687704289</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>8880.174459335487</v>
+        <v>8880.174459335547</v>
       </c>
       <c r="K3" t="n">
         <v>1168.747045491171</v>
       </c>
       <c r="L3" t="n">
-        <v>49278.98359503886</v>
+        <v>49278.98359503883</v>
       </c>
       <c r="M3" t="n">
         <v>183421.9197465336</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.5741320236</v>
+        <v>49839.57413202363</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>397057.3584744651</v>
       </c>
       <c r="D4" t="n">
-        <v>266424.9736266691</v>
+        <v>266424.9736266693</v>
       </c>
       <c r="E4" t="n">
-        <v>8011.893867085436</v>
+        <v>8011.893867085435</v>
       </c>
       <c r="F4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731987</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731998</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
         <v>8117.312426731987</v>
       </c>
       <c r="K4" t="n">
+        <v>8117.312426731987</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8117.312426731984</v>
+      </c>
+      <c r="M4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
+        <v>8117.312426731984</v>
+      </c>
+      <c r="O4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="M4" t="n">
-        <v>8117.312426732006</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8117.312426732009</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8117.312426731976</v>
-      </c>
       <c r="P4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731984</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>36730.71216531784</v>
       </c>
       <c r="D5" t="n">
-        <v>59540.85891117609</v>
+        <v>59540.85891117607</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738567</v>
+        <v>85137.48506738566</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2095.305933113246</v>
+        <v>2095.305933113304</v>
       </c>
       <c r="C6" t="n">
-        <v>25909.43639222335</v>
+        <v>25909.43639222324</v>
       </c>
       <c r="D6" t="n">
-        <v>-345379.4102965081</v>
+        <v>-345379.4102965079</v>
       </c>
       <c r="E6" t="n">
-        <v>-425071.299862136</v>
+        <v>-425292.4311761109</v>
       </c>
       <c r="F6" t="n">
-        <v>165561.1838006856</v>
+        <v>165526.4458752499</v>
       </c>
       <c r="G6" t="n">
-        <v>354869.4525711146</v>
+        <v>354834.7146456788</v>
       </c>
       <c r="H6" t="n">
-        <v>354869.4525711144</v>
+        <v>354834.7146456788</v>
       </c>
       <c r="I6" t="n">
-        <v>354869.4525711146</v>
+        <v>354834.7146456787</v>
       </c>
       <c r="J6" t="n">
-        <v>345989.2781117791</v>
+        <v>345954.5401863432</v>
       </c>
       <c r="K6" t="n">
-        <v>353700.7055256232</v>
+        <v>353665.9676001878</v>
       </c>
       <c r="L6" t="n">
-        <v>305590.4689760756</v>
+        <v>305555.73105064</v>
       </c>
       <c r="M6" t="n">
-        <v>171447.532824581</v>
+        <v>171412.7948991452</v>
       </c>
       <c r="N6" t="n">
-        <v>305029.878439091</v>
+        <v>304995.1405136552</v>
       </c>
       <c r="O6" t="n">
-        <v>354869.4525711146</v>
+        <v>354834.7146456788</v>
       </c>
       <c r="P6" t="n">
-        <v>354869.4525711146</v>
+        <v>354834.7146456788</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>538.3178861011856</v>
+        <v>538.3178861011853</v>
       </c>
       <c r="E3" t="n">
         <v>1202.24123721495</v>
@@ -26793,10 +26793,10 @@
         <v>38.48106384277808</v>
       </c>
       <c r="D4" t="n">
-        <v>233.1896216146422</v>
+        <v>233.1896216146421</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490092</v>
+        <v>969.2208239490091</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26808,7 +26808,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26820,10 +26820,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26963,10 @@
         <v>12.007878032336</v>
       </c>
       <c r="D3" t="n">
-        <v>503.2966253820603</v>
+        <v>503.29662538206</v>
       </c>
       <c r="E3" t="n">
-        <v>663.9233511137647</v>
+        <v>663.9233511137651</v>
       </c>
       <c r="F3" t="n">
         <v>165.7342631267234</v>
@@ -27015,13 +27015,13 @@
         <v>4.541151368822746</v>
       </c>
       <c r="D4" t="n">
-        <v>194.7085577718641</v>
+        <v>194.708557771864</v>
       </c>
       <c r="E4" t="n">
         <v>736.031202334367</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506392</v>
+        <v>203.4874641506393</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>33.93991247395502</v>
+        <v>33.93991247395525</v>
       </c>
       <c r="K4" t="n">
         <v>4.541151368822739</v>
       </c>
       <c r="L4" t="n">
-        <v>194.7085577718641</v>
+        <v>194.708557771864</v>
       </c>
       <c r="M4" t="n">
-        <v>736.0312023343672</v>
+        <v>736.031202334367</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506392</v>
+        <v>203.4874641506393</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27261,13 +27261,13 @@
         <v>4.541151368822746</v>
       </c>
       <c r="L4" t="n">
-        <v>194.7085577718641</v>
+        <v>194.708557771864</v>
       </c>
       <c r="M4" t="n">
         <v>736.031202334367</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506392</v>
+        <v>203.4874641506393</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,16 +27382,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>344.0960881703066</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>347.9904575983064</v>
       </c>
       <c r="F2" t="n">
+        <v>372.9361332677561</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>396.2890922913351</v>
       </c>
       <c r="H2" t="n">
         <v>338.5273214908784</v>
@@ -27427,13 +27427,13 @@
         <v>110.1176902905148</v>
       </c>
       <c r="S2" t="n">
-        <v>172.9719462259575</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T2" t="n">
         <v>222.6908602868995</v>
       </c>
       <c r="U2" t="n">
-        <v>217.3983391449769</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27458,16 +27458,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>142.8142240812559</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>113.5051530906834</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>123.7051679814456</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>111.1292999194285</v>
       </c>
       <c r="G3" t="n">
         <v>137.2940166796957</v>
@@ -27512,19 +27512,19 @@
         <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
-        <v>191.9982129962619</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
-        <v>198.8606746754699</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>171.8330727295221</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>175.7884208702445</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27537,7 +27537,7 @@
         <v>167.3857047935936</v>
       </c>
       <c r="C4" t="n">
-        <v>133.3069086246725</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>114.675560544257</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.6870224659892</v>
+        <v>48.74710999203386</v>
       </c>
       <c r="R4" t="n">
         <v>175.4274210366964</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>370.0742433085737</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>388.1438732363119</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>338.0329468943008</v>
       </c>
       <c r="I5" t="n">
-        <v>166.5670582748677</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>102.5442178425012</v>
       </c>
       <c r="S5" t="n">
-        <v>167.3307766836197</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T5" t="n">
-        <v>222.4795457699687</v>
+        <v>183.9984819271906</v>
       </c>
       <c r="U5" t="n">
         <v>251.3343897888113</v>
@@ -27676,7 +27676,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>310.7599048746349</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27704,16 +27704,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>111.1750913606649</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>98.78712457096123</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H6" t="n">
-        <v>73.02686326066636</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I6" t="n">
-        <v>48.32201337990931</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27749,19 +27749,19 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9364262421938</v>
+        <v>187.4553623994157</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>194.3195233066472</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>217.8008621282007</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>167.2016319345263</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>160.8701097949304</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>107.9528988037911</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27819,7 +27819,7 @@
         <v>42.39276904032837</v>
       </c>
       <c r="R7" t="n">
-        <v>155.4919282767725</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S7" t="n">
         <v>222.9160118599466</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>187.2285915462591</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27859,19 +27859,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>350.1717479575229</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>173.6864241270692</v>
+        <v>173.6864241270694</v>
       </c>
       <c r="G8" t="n">
-        <v>179.949023896066</v>
+        <v>275.2351343510661</v>
       </c>
       <c r="H8" t="n">
-        <v>317.3117948754304</v>
+        <v>84.12217326078834</v>
       </c>
       <c r="I8" t="n">
-        <v>127.0447325697387</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>153.0483170414114</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27947,10 +27947,10 @@
         <v>136.1856258610307</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>101.0526519233379</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>49.53063845618578</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,25 +27980,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>150.1758480129084</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>195.4976141917368</v>
+        <v>113.2344507777665</v>
       </c>
       <c r="U9" t="n">
-        <v>171.516409811603</v>
+        <v>225.8652050216209</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>18.50536154627741</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.0202421868009</v>
+        <v>117.9640212940098</v>
       </c>
       <c r="H10" t="n">
         <v>153.5964365630632</v>
       </c>
       <c r="I10" t="n">
-        <v>126.2577607104923</v>
+        <v>126.2577607104924</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>130.2082179551118</v>
+        <v>133.64551818608</v>
       </c>
       <c r="S10" t="n">
         <v>207.0992965999891</v>
       </c>
       <c r="T10" t="n">
-        <v>223.7978942402887</v>
+        <v>223.7978942402888</v>
       </c>
       <c r="U10" t="n">
         <v>286.2660800562186</v>
       </c>
       <c r="V10" t="n">
-        <v>18.94802170918581</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>53.33337672194881</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.164092004426875</v>
+        <v>2.164092004426874</v>
       </c>
       <c r="H8" t="n">
-        <v>22.16300724033674</v>
+        <v>22.16300724033673</v>
       </c>
       <c r="I8" t="n">
-        <v>83.4311570006672</v>
+        <v>83.43115700066714</v>
       </c>
       <c r="J8" t="n">
-        <v>183.6746037607257</v>
+        <v>183.6746037607256</v>
       </c>
       <c r="K8" t="n">
-        <v>275.2806183081154</v>
+        <v>275.2806183081152</v>
       </c>
       <c r="L8" t="n">
-        <v>341.5099489885944</v>
+        <v>341.5099489885942</v>
       </c>
       <c r="M8" t="n">
-        <v>379.9956201723209</v>
+        <v>379.9956201723206</v>
       </c>
       <c r="N8" t="n">
-        <v>386.1443465798988</v>
+        <v>386.1443465798985</v>
       </c>
       <c r="O8" t="n">
-        <v>364.625156710879</v>
+        <v>364.6251567108787</v>
       </c>
       <c r="P8" t="n">
-        <v>311.1991353515904</v>
+        <v>311.1991353515903</v>
       </c>
       <c r="Q8" t="n">
-        <v>233.6975904430529</v>
+        <v>233.6975904430527</v>
       </c>
       <c r="R8" t="n">
-        <v>135.9401443730798</v>
+        <v>135.9401443730797</v>
       </c>
       <c r="S8" t="n">
-        <v>49.31424655087747</v>
+        <v>49.31424655087744</v>
       </c>
       <c r="T8" t="n">
-        <v>9.473312749378652</v>
+        <v>9.473312749378646</v>
       </c>
       <c r="U8" t="n">
-        <v>0.17312736035415</v>
+        <v>0.1731273603541499</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.157891302179909</v>
+        <v>1.157891302179908</v>
       </c>
       <c r="H9" t="n">
-        <v>11.1827923131586</v>
+        <v>11.18279231315859</v>
       </c>
       <c r="I9" t="n">
-        <v>39.86599439522932</v>
+        <v>39.86599439522929</v>
       </c>
       <c r="J9" t="n">
-        <v>109.3953357028834</v>
+        <v>109.3953357028833</v>
       </c>
       <c r="K9" t="n">
-        <v>186.9740529489373</v>
+        <v>186.9740529489372</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4096882211245</v>
+        <v>251.4096882211244</v>
       </c>
       <c r="M9" t="n">
-        <v>293.3832479251461</v>
+        <v>293.383247925146</v>
       </c>
       <c r="N9" t="n">
-        <v>301.1482295086246</v>
+        <v>301.1482295086244</v>
       </c>
       <c r="O9" t="n">
-        <v>275.4917959182171</v>
+        <v>275.491795918217</v>
       </c>
       <c r="P9" t="n">
-        <v>221.1064540101266</v>
+        <v>221.1064540101265</v>
       </c>
       <c r="Q9" t="n">
         <v>147.8038090291406</v>
       </c>
       <c r="R9" t="n">
-        <v>71.89083014762629</v>
+        <v>71.89083014762625</v>
       </c>
       <c r="S9" t="n">
-        <v>21.50732309092943</v>
+        <v>21.50732309092942</v>
       </c>
       <c r="T9" t="n">
-        <v>4.667114503084806</v>
+        <v>4.667114503084803</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0761770593539414</v>
+        <v>0.07617705935394135</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9707371716578757</v>
+        <v>0.970737171657875</v>
       </c>
       <c r="H10" t="n">
-        <v>8.630735944376392</v>
+        <v>8.630735944376386</v>
       </c>
       <c r="I10" t="n">
-        <v>29.19271421676594</v>
+        <v>29.19271421676592</v>
       </c>
       <c r="J10" t="n">
-        <v>68.6311180362118</v>
+        <v>68.63111803621176</v>
       </c>
       <c r="K10" t="n">
-        <v>112.7820095798877</v>
+        <v>112.7820095798876</v>
       </c>
       <c r="L10" t="n">
-        <v>144.32214277539</v>
+        <v>144.3221427753899</v>
       </c>
       <c r="M10" t="n">
-        <v>152.1674640990613</v>
+        <v>152.1674640990612</v>
       </c>
       <c r="N10" t="n">
-        <v>148.5492619137912</v>
+        <v>148.5492619137911</v>
       </c>
       <c r="O10" t="n">
-        <v>137.2092867721514</v>
+        <v>137.2092867721513</v>
       </c>
       <c r="P10" t="n">
-        <v>117.4062484703307</v>
+        <v>117.4062484703306</v>
       </c>
       <c r="Q10" t="n">
-        <v>81.28600080127903</v>
+        <v>81.28600080127897</v>
       </c>
       <c r="R10" t="n">
-        <v>43.64787319108956</v>
+        <v>43.64787319108954</v>
       </c>
       <c r="S10" t="n">
-        <v>16.91730143698316</v>
+        <v>16.91730143698314</v>
       </c>
       <c r="T10" t="n">
-        <v>4.14769518799274</v>
+        <v>4.147695187992738</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05294930027224783</v>
+        <v>0.05294930027224779</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31844,7 +31844,7 @@
         <v>417.574675759838</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747748</v>
+        <v>171.3336650206105</v>
       </c>
       <c r="M12" t="n">
         <v>655.2214742821478</v>
@@ -31853,7 +31853,7 @@
         <v>672.5632370340504</v>
       </c>
       <c r="O12" t="n">
-        <v>225.1169475382831</v>
+        <v>615.2639659924473</v>
       </c>
       <c r="P12" t="n">
         <v>493.8035753383445</v>
@@ -32075,10 +32075,10 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>456.3459017226598</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,13 +32087,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32312,7 +32312,7 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32327,7 +32327,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32555,7 +32555,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32567,10 +32567,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32789,28 +32789,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>456.3459017226598</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33032,10 +33032,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33269,16 +33269,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>650.2626573149953</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33497,13 +33497,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33731,16 +33731,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>150.7833302198383</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33752,10 +33752,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,16 +34454,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N45" t="n">
-        <v>593.5422977113961</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34699,7 +34699,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="L2" t="n">
         <v>33.93991247395533</v>
@@ -34714,7 +34714,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>3.930118828988642</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="L3" t="n">
         <v>33.93991247395533</v>
       </c>
       <c r="M3" t="n">
+        <v>28.63848405005938</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>33.93991247395533</v>
-      </c>
-      <c r="N3" t="n">
-        <v>32.56860287904804</v>
-      </c>
-      <c r="O3" t="n">
-        <v>33.93991247395533</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,16 +34936,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>31.71334579105918</v>
       </c>
       <c r="M5" t="n">
-        <v>31.71334579105918</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>38.48106384277808</v>
@@ -35018,22 +35018,22 @@
         <v>38.48106384277808</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>36.92627338448403</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>36.92627338448402</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="P6" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2.628699234039402</v>
+        <v>171.7253144061131</v>
       </c>
       <c r="K8" t="n">
-        <v>55.19076726313483</v>
+        <v>113.6021797578559</v>
       </c>
       <c r="L8" t="n">
-        <v>105.7435340186072</v>
+        <v>105.743534018607</v>
       </c>
       <c r="M8" t="n">
-        <v>149.6493869450481</v>
+        <v>149.6493869450479</v>
       </c>
       <c r="N8" t="n">
-        <v>156.7312829833078</v>
+        <v>156.7312829833076</v>
       </c>
       <c r="O8" t="n">
-        <v>233.1896216146422</v>
+        <v>134.526945289192</v>
       </c>
       <c r="P8" t="n">
-        <v>79.96613959632089</v>
+        <v>79.96613959632072</v>
       </c>
       <c r="Q8" t="n">
-        <v>140.2372519099474</v>
+        <v>11.39190056860326</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>51.49872294684109</v>
+        <v>141.2416975092988</v>
       </c>
       <c r="L9" t="n">
-        <v>112.8553084412503</v>
+        <v>233.1896216146421</v>
       </c>
       <c r="M9" t="n">
-        <v>151.2492140031278</v>
+        <v>151.2492140031276</v>
       </c>
       <c r="N9" t="n">
-        <v>169.8065174252913</v>
+        <v>169.8065174252911</v>
       </c>
       <c r="O9" t="n">
-        <v>132.8955514737727</v>
+        <v>132.8955514737725</v>
       </c>
       <c r="P9" t="n">
-        <v>87.1320465957964</v>
+        <v>87.13204659579625</v>
       </c>
       <c r="Q9" t="n">
-        <v>217.8993226789682</v>
+        <v>7.822034943119036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>90.51251775400486</v>
+        <v>90.51251775400479</v>
       </c>
       <c r="L10" t="n">
         <v>171.9121680357061</v>
       </c>
       <c r="M10" t="n">
-        <v>191.7513410609019</v>
+        <v>191.7513410609018</v>
       </c>
       <c r="N10" t="n">
-        <v>192.6814342930198</v>
+        <v>192.6814342930197</v>
       </c>
       <c r="O10" t="n">
-        <v>161.7944146861911</v>
+        <v>161.794414686191</v>
       </c>
       <c r="P10" t="n">
-        <v>114.6848077352242</v>
+        <v>114.6848077352241</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35492,7 +35492,7 @@
         <v>279.7332367854791</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949006</v>
+        <v>32.77928524073628</v>
       </c>
       <c r="M12" t="n">
         <v>513.0874403601294</v>
@@ -35501,7 +35501,7 @@
         <v>541.2215249507171</v>
       </c>
       <c r="O12" t="n">
-        <v>82.52070309383863</v>
+        <v>472.6677215480029</v>
       </c>
       <c r="P12" t="n">
         <v>359.8291679240143</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,13 +35735,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35975,7 +35975,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36215,10 +36215,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36376,7 +36376,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924738</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,10 +36592,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36680,10 +36680,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36917,16 +36917,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>508.128623392977</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>23.94570355317164</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37400,10 +37400,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367785</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,16 +38102,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N45" t="n">
-        <v>462.2005856280628</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
